--- a/Data/csa_distribution_flw.xlsx
+++ b/Data/csa_distribution_flw.xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egli\Nextcloud\Cloud\FoodSystem\Git\LeVe_Solawi\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F76241-70DE-4ADC-97E4-108E2661114C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A10FD-36B8-466B-84C7-DA51607D7D71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13130" windowHeight="6110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="25">
   <si>
-    <t>Solawi</t>
-  </si>
-  <si>
     <t>Kultur</t>
   </si>
   <si>
-    <t>Liefermenge_kg_VST</t>
-  </si>
-  <si>
-    <t>Nachverwertung_kg_VST</t>
-  </si>
-  <si>
-    <t>Loss_Ratio_VST</t>
-  </si>
-  <si>
     <t>Brokkoli</t>
   </si>
   <si>
@@ -95,6 +83,18 @@
   </si>
   <si>
     <t>csa4</t>
+  </si>
+  <si>
+    <t>Delivery_kg</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>Ratio_distribution_total</t>
+  </si>
+  <si>
+    <t>Loss_distribution_kg</t>
   </si>
 </sst>
 </file>
@@ -430,35 +430,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>31.78</v>
@@ -470,12 +470,12 @@
         <v>2.7155443675267499E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>73.97</v>
@@ -487,12 +487,12 @@
         <v>6.8433148573746105E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>85.65</v>
@@ -504,12 +504,12 @@
         <v>0.10025685931115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>298</v>
@@ -521,12 +521,12 @@
         <v>5.3714765100671101E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>196.70079999999999</v>
@@ -538,12 +538,12 @@
         <v>9.6369714815598098E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>460.774</v>
@@ -555,12 +555,12 @@
         <v>5.8759825858229801E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>203.61</v>
@@ -572,12 +572,12 @@
         <v>4.1132557340012803E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>16.815799999999999</v>
@@ -589,12 +589,12 @@
         <v>7.3264429881420998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>59.1</v>
@@ -606,12 +606,12 @@
         <v>0.16681895093062599</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>596.41</v>
@@ -623,12 +623,12 @@
         <v>7.8412501467111595E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>106.32</v>
@@ -640,12 +640,12 @@
         <v>4.0208803611738099E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>385.88</v>
@@ -657,12 +657,12 @@
         <v>5.1254275940707E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>10.01</v>
@@ -674,12 +674,12 @@
         <v>0.22147852147852101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>645.35900000000004</v>
@@ -691,12 +691,12 @@
         <v>5.9266237861407403E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>15.768000000000001</v>
@@ -708,12 +708,12 @@
         <v>0.102993404363267</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>2.2679999999999998</v>
@@ -725,12 +725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>62.5</v>
@@ -742,12 +742,12 @@
         <v>2.7392E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>16.145</v>
@@ -759,12 +759,12 @@
         <v>0.12313409724372899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>94.5</v>
@@ -776,12 +776,12 @@
         <v>0.180645502645503</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>50.3</v>
@@ -793,12 +793,12 @@
         <v>0.189184890656064</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>171.5735</v>
@@ -810,12 +810,12 @@
         <v>2.5038831754320999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>229.00475</v>
@@ -827,12 +827,12 @@
         <v>0.146503511390048</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>15.830500000000001</v>
@@ -844,12 +844,12 @@
         <v>4.8198098607119197E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>211</v>
@@ -861,12 +861,12 @@
         <v>0.109239336492891</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>120.21125000000001</v>
@@ -878,12 +878,12 @@
         <v>0.15187596834738801</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>115.59520000000001</v>
@@ -895,12 +895,12 @@
         <v>9.6314552853405705E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>185.786</v>
@@ -912,12 +912,12 @@
         <v>1.4086099060209099E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>22.341000000000001</v>
@@ -929,12 +929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>797.07950000000005</v>
@@ -946,12 +946,12 @@
         <v>0.108986619276998</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>28.82</v>
@@ -963,12 +963,12 @@
         <v>8.2581540596807796E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>102.625</v>
@@ -980,12 +980,12 @@
         <v>4.3712545676004903E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>26.331600000000002</v>
@@ -997,12 +997,12 @@
         <v>7.9941970863905004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>398.69499999999999</v>
@@ -1014,12 +1014,12 @@
         <v>5.5591366834296899E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>339.13987307692298</v>
@@ -1031,12 +1031,12 @@
         <v>4.6331915670782903E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>93.853800000000007</v>
@@ -1048,12 +1048,12 @@
         <v>3.3307122354129498E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>903.12599999999998</v>
@@ -1065,12 +1065,12 @@
         <v>2.4449523100874102E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>94.890404545454501</v>
@@ -1082,12 +1082,12 @@
         <v>3.1246573499217199E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>130.5</v>
@@ -1099,12 +1099,12 @@
         <v>6.7800766283524896E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>476.005</v>
@@ -1116,12 +1116,12 @@
         <v>4.4068864822848497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>317.781348120301</v>
@@ -1133,12 +1133,12 @@
         <v>4.78316304273649E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>462.58198611111101</v>
@@ -1150,12 +1150,12 @@
         <v>4.6601468814702299E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>112.883475</v>
@@ -1167,12 +1167,12 @@
         <v>4.8377320063897701E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>408.40453333333301</v>
@@ -1184,12 +1184,12 @@
         <v>3.89491269114218E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>404.26400000000001</v>
@@ -1201,12 +1201,12 @@
         <v>4.7285931965250397E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>77.486999999999995</v>
@@ -1218,12 +1218,12 @@
         <v>0.10804392994954</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47">
         <v>331.67880000000002</v>
@@ -1235,12 +1235,12 @@
         <v>0.117894179549612</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>1004.3227000000001</v>
@@ -1252,12 +1252,12 @@
         <v>6.1485914835938703E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>348.86950000000002</v>
@@ -1269,12 +1269,12 @@
         <v>6.0506865747793903E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>432.95749999999998</v>
@@ -1286,12 +1286,12 @@
         <v>5.0104225010538003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C51">
         <v>37.655999999999999</v>
@@ -1303,12 +1303,12 @@
         <v>0.123167622689611</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>720.06849999999997</v>
@@ -1320,12 +1320,12 @@
         <v>1.8846818045783101E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>392.92860000000002</v>
@@ -1337,12 +1337,12 @@
         <v>5.4559021664495798E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>746.94500000000005</v>
@@ -1354,12 +1354,12 @@
         <v>0.12637610533573401</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>267.9615</v>
@@ -1371,12 +1371,12 @@
         <v>0.17056554766263099</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>549.8107</v>
@@ -1388,12 +1388,12 @@
         <v>5.7258798346412697E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>90.142799999999994</v>
@@ -1405,12 +1405,12 @@
         <v>3.5976251015056103E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58">
         <v>116.8215</v>
@@ -1422,12 +1422,12 @@
         <v>0.14063335944154101</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C59">
         <v>403.12880000000001</v>
@@ -1439,12 +1439,12 @@
         <v>4.7287616265570702E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>34.822899999999997</v>
